--- a/Data/recalibration due to resistor change.xlsx
+++ b/Data/recalibration due to resistor change.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgsec\Documents\PlatformIO\Projects\Energy Monitor\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgsec\Documents\PlatformIO\Projects\Energy Monitor Github\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83B9DAA-7FE4-4C4B-9EA4-E8B3E3518E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E9F5C9-817D-4CBB-81EE-D1F146C69B13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="420" windowWidth="28140" windowHeight="11385" xr2:uid="{2AC9497B-40A9-4DF0-9832-570ABBA91D79}"/>
+    <workbookView xWindow="5715" yWindow="1485" windowWidth="21600" windowHeight="11385" xr2:uid="{2AC9497B-40A9-4DF0-9832-570ABBA91D79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Meter reading</t>
   </si>
@@ -45,13 +45,7 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>resistor ratio=</t>
-  </si>
-  <si>
     <t>= average correction factor</t>
-  </si>
-  <si>
-    <t>After re-calibration</t>
   </si>
 </sst>
 </file>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1931219B-DC2F-4878-A9FB-FE5DA33FFCB3}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A9" sqref="A9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,46 +501,7 @@
         <v>0.9255413052078495</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
         <v>4</v>
-      </c>
-      <c r="D9">
-        <f>51.1/56</f>
-        <v>0.91249999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2745.5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
